--- a/TestData/TMTI0049639_VerifyTheFunctionalityOfVenueSourcingOn_MeetingManagementPresentationPage.xlsx
+++ b/TestData/TMTI0049639_VerifyTheFunctionalityOfVenueSourcingOn_MeetingManagementPresentationPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C23F00-695D-4F15-B1F5-0C08586D680C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0ED913-42C2-496C-9A89-AEE0A54498BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>Cases</t>
   </si>
   <si>
-    <t>e.Ventures</t>
-  </si>
-  <si>
     <t>Counterparty</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>DealerSocket</t>
   </si>
 </sst>
 </file>
@@ -512,13 +512,13 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -547,12 +547,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,7 +560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -579,17 +579,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -607,22 +607,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -641,13 +641,13 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -655,15 +655,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J11" s="2"/>
     </row>
   </sheetData>
@@ -680,17 +680,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -700,7 +700,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -716,29 +716,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -751,20 +751,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEA56F2-F595-4E31-944D-5E3D3DD3913E}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -773,32 +773,32 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -810,68 +810,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6499C4-8DC6-4CCD-890E-9808E4C0B637}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
